--- a/Affordable EV 2022.xlsx
+++ b/Affordable EV 2022.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:E108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +425,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Model</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -434,7 +435,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Dest Charge</t>
+          <t>Dest. Charge</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -451,39 +452,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Model</t>
+          <t>2022 Audi e-tron GT quattro 20"</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Base Price</t>
+          <t>$102,400</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Dest. Charge</t>
+          <t>+$1,045</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tax Credit</t>
+          <t>$7,500</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Effective Price</t>
+          <t>$95,945</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022 Audi e-tron GT quattro 20"</t>
+          <t>2022 Audi RS e-tron GT quattro 20"</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$102,400</t>
+          <t>$142,400</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -498,24 +499,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$95,945</t>
+          <t>$135,945</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022 Audi RS e-tron GT quattro 20"</t>
+          <t>2022 Audi e-tron quattro 20"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$142,400</t>
+          <t>$65,900</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>+$1,045</t>
+          <t>+$1,095</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -525,19 +526,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$135,945</t>
+          <t>$59,495</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022 Audi e-tron quattro 20"</t>
+          <t>2022 Audi e-tron Sportback quattro 20"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$65,900</t>
+          <t>$69,100</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -552,19 +553,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$59,495</t>
+          <t>$62,695</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022 Audi e-tron Sportback quattro 20"</t>
+          <t>2022 Audi e-tron S 20"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$69,100</t>
+          <t>$84,800</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -579,19 +580,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>$62,695</t>
+          <t>$78,395</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022 Audi e-tron S 20"</t>
+          <t>2022 Audi e-tron S 21"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$84,800</t>
+          <t>$87,450</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -606,19 +607,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$78,395</t>
+          <t>$81,045</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022 Audi e-tron S 21"</t>
+          <t>2022 Audi e-tron S Sportback 20"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$87,450</t>
+          <t>$87,400</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -633,19 +634,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>$81,045</t>
+          <t>$80,995</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022 Audi e-tron S Sportback 20"</t>
+          <t>2022 Audi e-tron S Sportback 21"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>$87,400</t>
+          <t>$90,050</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -660,19 +661,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>$80,995</t>
+          <t>$83,645</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022 Audi e-tron S Sportback 21"</t>
+          <t>2022 Audi Q4 40 e-tron 19"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>$90,050</t>
+          <t>$43,900</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -687,19 +688,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>$83,645</t>
+          <t>$37,495</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022 Audi Q4 40 e-tron 19"</t>
+          <t>2022 Audi Q4 50 e-tron quattro 19"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>$43,900</t>
+          <t>$49,900</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -714,19 +715,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>$37,495</t>
+          <t>$43,495</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022 Audi Q4 50 e-tron quattro 19"</t>
+          <t>2022 Audi Q4 Sportback 50 e-tron quattro 20"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>$49,900</t>
+          <t>$52,700</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -741,24 +742,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>$43,495</t>
+          <t>$46,295</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022 Audi Q4 Sportback 50 e-tron quattro 20"</t>
+          <t>2022 BMW i4 eDrive40 18"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$52,700</t>
+          <t>$55,400</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>+$1,095</t>
+          <t>+$995</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -768,19 +769,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>$46,295</t>
+          <t>$48,895</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022 BMW i4 eDrive40 18"</t>
+          <t>2022 BMW i4 M50 19"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$55,400</t>
+          <t>$65,900</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -795,19 +796,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>$48,895</t>
+          <t>$59,395</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022 BMW i4 M50 19"</t>
+          <t>2022 BMW iX xDrive50 20"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>$65,900</t>
+          <t>$83,200</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -822,51 +823,51 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>$59,395</t>
+          <t>$76,695</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022 BMW iX xDrive50 20"</t>
+          <t>2023 Cadillac Lyriq Debut Edition</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>$83,200</t>
+          <t>$58,795</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>+$995</t>
+          <t>+$1,195</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>$7,500</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>$76,695</t>
+          <t>$59,990</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2023 Cadillac Lyriq Debut Edition</t>
+          <t>2022 Chevrolet Bolt EV</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>$58,795</t>
+          <t>$31,000</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>+$1,195</t>
+          <t>+$995</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -876,19 +877,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>$59,990</t>
+          <t>$31,995</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022 Chevrolet Bolt EV</t>
+          <t>2022 Chevrolet Bolt EUV</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>$31,000</t>
+          <t>$33,000</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -903,46 +904,46 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>$31,995</t>
+          <t>$33,995</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022 Chevrolet Bolt EUV</t>
+          <t>2022 Ford F-150 Pro SR 18"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>$33,000</t>
+          <t>$39,974</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>+$995</t>
+          <t>+$1,695</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$7,500</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>$33,995</t>
+          <t>$34,169</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022 Ford F-150 Pro SR 18"</t>
+          <t>2022 Ford F-150 Pro ER (fleets) 18"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>$39,974</t>
+          <t>$49,974</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -957,19 +958,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>$34,169</t>
+          <t>$44,169</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022 Ford F-150 Pro ER (fleets) 18"</t>
+          <t>2022 Ford F-150 Lightning XLT SR 18"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>$49,974</t>
+          <t>$52,974</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -984,19 +985,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>$44,169</t>
+          <t>$47,169</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2022 Ford F-150 Lightning XLT SR 18"</t>
+          <t>2022 Ford F-150 Lightning XLT ER 20"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>$52,974</t>
+          <t>$72,474</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1011,19 +1012,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>$47,169</t>
+          <t>$66,669</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2022 Ford F-150 Lightning XLT ER 20"</t>
+          <t>2022 Ford F-150 Lightning Lariat SR 20"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>$72,474</t>
+          <t>$67,474</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1038,19 +1039,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>$66,669</t>
+          <t>$61,669</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2022 Ford F-150 Lightning Lariat SR 20"</t>
+          <t>2022 Ford F-150 Lightning Lariat ER 20"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>$67,474</t>
+          <t>$77,474</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1065,19 +1066,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>$61,669</t>
+          <t>$71,669</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2022 Ford F-150 Lightning Lariat ER 20"</t>
+          <t>2022 Ford F-150 Lightning Platinum ER 22"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>$77,474</t>
+          <t>$90,874</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1092,24 +1093,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>$71,669</t>
+          <t>$85,069</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2022 Ford F-150 Lightning Platinum ER 22"</t>
+          <t>2022 Ford Mustang Mach-E Select SR RWD 18"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>$90,874</t>
+          <t>$43,895</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>+$1,695</t>
+          <t>+$1,100</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1119,19 +1120,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>$85,069</t>
+          <t>$37,495</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2022 Ford Mustang Mach-E Select SR RWD 18"</t>
+          <t>2022 Ford Mustang Mach-E Select SR AWD 18"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>$43,895</t>
+          <t>$46,595</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1146,19 +1147,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>$37,495</t>
+          <t>$40,195</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2022 Ford Mustang Mach-E Select SR AWD 18"</t>
+          <t>2022 Ford Mustang Mach-E Premium SR RWD 19"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>$46,595</t>
+          <t>$49,100</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1173,19 +1174,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>$40,195</t>
+          <t>$42,700</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2022 Ford Mustang Mach-E Premium SR RWD 19"</t>
+          <t>2022 Ford Mustang Mach-E Premium SR AWD 19"</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>$49,100</t>
+          <t>$51,800</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1200,19 +1201,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>$42,700</t>
+          <t>$45,400</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2022 Ford Mustang Mach-E Premium SR AWD 19"</t>
+          <t>2022 Ford Mustang Mach-E Premium ER RWD 19"</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>$51,800</t>
+          <t>$55,100</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1227,19 +1228,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>$45,400</t>
+          <t>$48,700</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2022 Ford Mustang Mach-E Premium ER RWD 19"</t>
+          <t>2022 Ford Mustang Mach-E Premium ER AWD 19"</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>$55,100</t>
+          <t>$57,800</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1254,19 +1255,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>$48,700</t>
+          <t>$51,400</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2022 Ford Mustang Mach-E Premium ER AWD 19"</t>
+          <t>2022 Ford Mustang Mach-E Route 1 ER RWD 18"</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>$57,800</t>
+          <t>$52,775</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1281,19 +1282,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>$51,400</t>
+          <t>$46,375</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2022 Ford Mustang Mach-E Route 1 ER RWD 18"</t>
+          <t>2022 Ford Mustang Mach-E Route 1 ER AWD 18"</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>$52,775</t>
+          <t>$55,475</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1308,19 +1309,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>$46,375</t>
+          <t>$49,075</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2022 Ford Mustang Mach-E Route 1 ER AWD 18"</t>
+          <t>2022 Ford Mustang Mach-E GT ER AWD 20"</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>$55,475</t>
+          <t>$61,995</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1335,19 +1336,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>$49,075</t>
+          <t>$55,595</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2022 Ford Mustang Mach-E GT ER AWD 20"</t>
+          <t>2022 Ford Mustang Mach-E GT Perf. ER AWD 20"</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>$61,995</t>
+          <t>$67,995</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1362,73 +1363,73 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>$55,595</t>
+          <t>$61,595</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2022 Ford Mustang Mach-E GT Perf. ER AWD 20"</t>
+          <t>2022 GMC Hummer EV Pickup (Edition 1)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>$67,995</t>
+          <t>$110,295*</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>+$1,100</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>$7,500</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>$61,595</t>
+          <t>$110,295</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2022 GMC Hummer EV Pickup (Edition 1)</t>
+          <t>2022 Hyundai Ioniq 5 SE SR RWD 19"</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>$110,295*</t>
+          <t>$39,700</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+$1,225</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$7,500</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>$110,295</t>
+          <t>$33,425</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2022 Hyundai Ioniq 5 SE SR RWD 19"</t>
+          <t>2022 Hyundai Ioniq 5 SE RWD 19"</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>$39,700</t>
+          <t>$43,650</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1443,19 +1444,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>$33,425</t>
+          <t>$37,375</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2022 Hyundai Ioniq 5 SE RWD 19"</t>
+          <t>2022 Hyundai Ioniq 5 SE AWD 19"</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>$43,650</t>
+          <t>$47,150</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1470,19 +1471,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>$37,375</t>
+          <t>$40,875</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2022 Hyundai Ioniq 5 SE AWD 19"</t>
+          <t>2022 Hyundai Ioniq 5 SEL RWD 19"</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>$47,150</t>
+          <t>$45,900</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1497,19 +1498,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>$40,875</t>
+          <t>$39,625</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2022 Hyundai Ioniq 5 SEL RWD 19"</t>
+          <t>2022 Hyundai Ioniq 5 SEL AWD 19"</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>$45,900</t>
+          <t>$49,400</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1524,19 +1525,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>$39,625</t>
+          <t>$43,125</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2022 Hyundai Ioniq 5 SEL AWD 19"</t>
+          <t>2022 Hyundai Ioniq 5 Limited RWD 19"</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>$49,400</t>
+          <t>$50,600</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1551,19 +1552,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>$43,125</t>
+          <t>$44,325</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2022 Hyundai Ioniq 5 Limited RWD 19"</t>
+          <t>2022 Hyundai Ioniq 5 Limited AWD 20"</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>$50,600</t>
+          <t>$54,500</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1578,24 +1579,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>$44,325</t>
+          <t>$48,225</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2022 Hyundai Ioniq 5 Limited AWD 20"</t>
+          <t>2021 Hyundai IONIQ Electric</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>$54,500</t>
+          <t>$33,245</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>+$1,225</t>
+          <t>+$1,005</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1605,24 +1606,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>$48,225</t>
+          <t>$26,750</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2021 Hyundai IONIQ Electric</t>
+          <t>2022 Hyundai Kona Electric</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>$33,245</t>
+          <t>$34,000</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>+$1,005</t>
+          <t>+$1,185</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1632,24 +1633,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>$26,750</t>
+          <t>$27,685</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2022 Hyundai Kona Electric</t>
+          <t>2022 Jaguar I-PACE EV400</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>$34,000</t>
+          <t>$69,900</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>+$1,185</t>
+          <t>+$1,150</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1659,24 +1660,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>$27,685</t>
+          <t>$63,550</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2022 Jaguar I-PACE EV400</t>
+          <t>2022 Kia EV6 Light RWD SR 19"</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>$69,900</t>
+          <t>$40,900</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>+$1,150</t>
+          <t>+$1,215</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1686,19 +1687,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>$63,550</t>
+          <t>$34,615</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2022 Kia EV6 Light RWD SR 19"</t>
+          <t>2022 Kia EV6 Wind RWD LR 19"</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>$40,900</t>
+          <t>$47,000</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1713,19 +1714,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>$34,615</t>
+          <t>$40,715</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2022 Kia EV6 Wind RWD LR 19"</t>
+          <t>2022 Kia EV6 Wind AWD LR 19"</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>$47,000</t>
+          <t>$50,900</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1740,19 +1741,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>$40,715</t>
+          <t>$44,615</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2022 Kia EV6 Wind AWD LR 19"</t>
+          <t>2022 Kia EV6 GT-Line RWD LR 19"</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>$50,900</t>
+          <t>$51,200</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1767,19 +1768,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>$44,615</t>
+          <t>$44,915</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2022 Kia EV6 GT-Line RWD LR 19"</t>
+          <t>2022 Kia EV6 GT-Line AWD LR 19"</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>$51,200</t>
+          <t>$55,900</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1794,19 +1795,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>$44,915</t>
+          <t>$49,615</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2022 Kia EV6 GT-Line AWD LR 19"</t>
+          <t>2022 Kia EV6 First Edition AWD LR 20"</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>$55,900</t>
+          <t>$58,500</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1821,24 +1822,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>$49,615</t>
+          <t>$52,215</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2022 Kia EV6 First Edition AWD LR 20"</t>
+          <t>2022 Kia Niro EV</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>$58,500</t>
+          <t>$39,990</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>+$1,215</t>
+          <t>+$1,175</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1848,24 +1849,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>$52,215</t>
+          <t>$33,665</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2022 Kia Niro EV</t>
+          <t>2022 Lucid Air Dream Edition Performance 19"</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>$39,990</t>
+          <t>$169,000</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>+$1,175</t>
+          <t>+$1,500</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1875,14 +1876,14 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>$33,665</t>
+          <t>$163,000</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2022 Lucid Air Dream Edition Performance 19"</t>
+          <t>2022 Lucid Air Dream Edition Performance 21"</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1909,7 +1910,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2022 Lucid Air Dream Edition Performance 21"</t>
+          <t>2022 Lucid Air Dream Edition Range 19"</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1936,7 +1937,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2022 Lucid Air Dream Edition Range 19"</t>
+          <t>2022 Lucid Air Dream Edition Range 21"</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1963,12 +1964,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2022 Lucid Air Dream Edition Range 21"</t>
+          <t>2022 Lucid Air Grand Touring 19"</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>$169,000</t>
+          <t>$139,000</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1983,14 +1984,14 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>$163,000</t>
+          <t>$133,000</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2022 Lucid Air Grand Touring 19"</t>
+          <t>2022 Lucid Air Grand Touring 21"</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2017,17 +2018,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2022 Lucid Air Grand Touring 21"</t>
+          <t>2022 Mazda MX-30</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>$139,000</t>
+          <t>$33,470</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>+$1,500</t>
+          <t>+$1,175</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2037,24 +2038,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>$133,000</t>
+          <t>$27,145</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2022 Mazda MX-30</t>
+          <t>2022 Mercedes EQS 450+ (RWD; 20")</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>$33,470</t>
+          <t>$102,310</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>+$1,175</t>
+          <t>+$1,050</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2064,19 +2065,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>$27,145</t>
+          <t>$95,860</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2022 Mercedes EQS 450+ (RWD; 20")</t>
+          <t>2022 Mercedes EQS 580 4MATIC (AWD; 21")</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>$102,310</t>
+          <t>$119,110</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2091,24 +2092,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>$95,860</t>
+          <t>$112,660</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2022 Mercedes EQS 580 4MATIC (AWD; 21")</t>
+          <t>2022 MINI Cooper SE</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>$119,110</t>
+          <t>$29,900</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>+$1,050</t>
+          <t>+$850</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2118,24 +2119,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>$112,660</t>
+          <t>$23,250</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2022 MINI Cooper SE</t>
+          <t>2023 Nissan Ariya Venture+ FWD 19"</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>$29,900</t>
+          <t>$45,950</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>+$850</t>
+          <t>+$1,175</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2145,19 +2146,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>$23,250</t>
+          <t>$39,625</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2023 Nissan Ariya Venture+ FWD 19"</t>
+          <t>2023 Nissan Ariya Evolve+ FWD 19"</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>$45,950</t>
+          <t>$48,950</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2172,19 +2173,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>$39,625</t>
+          <t>$42,625</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2023 Nissan Ariya Evolve+ FWD 19"</t>
+          <t>2023 Nissan Ariya Premiere FWD 19" (limited)</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>$48,950</t>
+          <t>$53,450</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2199,19 +2200,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>$42,625</t>
+          <t>$47,125</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2023 Nissan Ariya Premiere FWD 19" (limited)</t>
+          <t>2023 Nissan Ariya Platinum+ e-4ORCE AWD 19"</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>$53,450</t>
+          <t>$58,950</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2226,24 +2227,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>$47,125</t>
+          <t>$52,625</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2023 Nissan Ariya Platinum+ e-4ORCE AWD 19"</t>
+          <t>2022 Nissan LEAF S (40 kWh)</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>$58,950</t>
+          <t>$27,400</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>+$1,175</t>
+          <t>+$975</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2253,19 +2254,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>$52,625</t>
+          <t>$20,875</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2022 Nissan LEAF S (40 kWh)</t>
+          <t>2022 Nissan LEAF e+ S (62 kWh)</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>$27,400</t>
+          <t>$32,400</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2280,19 +2281,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>$20,875</t>
+          <t>$25,875</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2022 Nissan LEAF e+ S (62 kWh)</t>
+          <t>2022 Nissan LEAF e+ SV (62 kWh)</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>$32,400</t>
+          <t>$37,400</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2307,24 +2308,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>$25,875</t>
+          <t>$30,875</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2022 Nissan LEAF e+ SV (62 kWh)</t>
+          <t>2022 Polestar 2 Single Motor 19"</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>$37,400</t>
+          <t>$45,900</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>+$975</t>
+          <t>+$1,300</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2334,19 +2335,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>$30,875</t>
+          <t>$39,700</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2022 Polestar 2 Single Motor 19"</t>
+          <t>2022 Polestar 2 Dual Motor 19"</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>$45,900</t>
+          <t>$49,900</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2361,24 +2362,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>$39,700</t>
+          <t>$43,700</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2022 Polestar 2 Dual Motor 19"</t>
+          <t>2022 Porsche Taycan (79 kWh) 19"</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>$49,900</t>
+          <t>$82,700</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>+$1,300</t>
+          <t>+$1,350</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2388,19 +2389,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>$43,700</t>
+          <t>$76,550</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2022 Porsche Taycan (79 kWh) 19"</t>
+          <t>2022 Porsche Taycan (93 kWh) 19"</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>$82,700</t>
+          <t>$88,480</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2415,19 +2416,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>$76,550</t>
+          <t>$82,330</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2022 Porsche Taycan (93 kWh) 19"</t>
+          <t>2022 Porsche Taycan 4S (79 kWh) 19"</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>$88,480</t>
+          <t>$103,800</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2442,19 +2443,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>$82,330</t>
+          <t>$97,650</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2022 Porsche Taycan 4S (79 kWh) 19"</t>
+          <t>2022 Porsche Taycan 4S (93 kWh) 19"</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>$103,800</t>
+          <t>$109,370</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2469,19 +2470,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>$97,650</t>
+          <t>$103,220</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2022 Porsche Taycan 4S (93 kWh) 19"</t>
+          <t>2022 Porsche Taycan GTS (93 kWh) 20"</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>$109,370</t>
+          <t>$131,400</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2496,19 +2497,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>$103,220</t>
+          <t>$125,250</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2022 Porsche Taycan GTS (93 kWh) 20"</t>
+          <t>2022 Porsche Taycan Turbo (93 kWh) 20"</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>$131,400</t>
+          <t>$150,900</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2523,19 +2524,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>$125,250</t>
+          <t>$144,750</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2022 Porsche Taycan Turbo (93 kWh) 20"</t>
+          <t>2022 Porsche Taycan Turbo S (93 kWh) 21"</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>$150,900</t>
+          <t>$185,000</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2550,19 +2551,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>$144,750</t>
+          <t>$178,850</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2022 Porsche Taycan Turbo S (93 kWh) 21"</t>
+          <t>2022 Porsche Taycan 4 Cross Turismo 19"</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>$185,000</t>
+          <t>$93,700</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2577,19 +2578,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>$178,850</t>
+          <t>$87,550</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2022 Porsche Taycan 4 Cross Turismo 19"</t>
+          <t>2022 Porsche Taycan 4S Cross Turismo 19"</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>$93,700</t>
+          <t>$110,300</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2604,19 +2605,19 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>$87,550</t>
+          <t>$104,150</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2022 Porsche Taycan 4S Cross Turismo 19"</t>
+          <t>2022 Porsche Taycan GTS Sport Turismo 20"</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>$110,300</t>
+          <t>$133,300</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2631,19 +2632,19 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>$104,150</t>
+          <t>$127,150</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2022 Porsche Taycan GTS Sport Turismo 20"</t>
+          <t>2022 Porsche Taycan Turbo Cross Turismo 20"</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>$133,300</t>
+          <t>$153,500</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2658,19 +2659,19 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>$127,150</t>
+          <t>$147,350</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2022 Porsche Taycan Turbo Cross Turismo 20"</t>
+          <t>2022 Porsche Taycan Turbo S Cross Turismo 20"</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>$153,500</t>
+          <t>$187,600</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2685,24 +2686,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>$147,350</t>
+          <t>$181,450</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2022 Porsche Taycan Turbo S Cross Turismo 20"</t>
+          <t>2022 Rivian R1S (Large pack, 21")</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>$187,600</t>
+          <t>$70,000</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>+$1,350</t>
+          <t>+$1,075</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2712,19 +2713,19 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>$181,450</t>
+          <t>$63,575</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2022 Rivian R1S (Large pack, 21")</t>
+          <t>2022 Rivian R1T (Large pack, 21")</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>$70,000</t>
+          <t>$67,500</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2739,46 +2740,46 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>$63,575</t>
+          <t>$61,075</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2022 Rivian R1T (Large pack, 21")</t>
+          <t>2022 Tesla Model 3 RWD 18"</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>$67,500</t>
+          <t>$44,990</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>+$1,075</t>
+          <t>+$1,200</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>$7,500</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>$61,075</t>
+          <t>$46,190</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2022 Tesla Model 3 RWD 18"</t>
+          <t>2022 Tesla Model 3 RWD 19"</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>$44,990</t>
+          <t>$46,490</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2793,19 +2794,19 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>$46,190</t>
+          <t>$47,690</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2022 Tesla Model 3 RWD 19"</t>
+          <t>2022 Tesla Model 3 Long Range AWD 18"</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>$46,490</t>
+          <t>$50,990</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2820,19 +2821,19 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>$47,690</t>
+          <t>$52,190</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2022 Tesla Model 3 Long Range AWD 18"</t>
+          <t>2022 Tesla Model 3 Long Range AWD 19"</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>$50,990</t>
+          <t>$52,490</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2847,19 +2848,19 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>$52,190</t>
+          <t>$53,690</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2022 Tesla Model 3 Long Range AWD 19"</t>
+          <t>2022 Tesla Model 3 Perf. LR AWD 20"</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>$52,490</t>
+          <t>$58,990</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2874,19 +2875,19 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>$53,690</t>
+          <t>$60,190</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2022 Tesla Model 3 Perf. LR AWD 20"</t>
+          <t>2022 Tesla Model S LR AWD 19"</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>$58,990</t>
+          <t>$94,990</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2901,19 +2902,19 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>$60,190</t>
+          <t>$96,190</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2022 Tesla Model S LR AWD 19"</t>
+          <t>2022 Tesla Model S LR AWD 21"</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>$94,990</t>
+          <t>$99,490</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2928,19 +2929,19 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>$96,190</t>
+          <t>$100,690</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2022 Tesla Model S LR AWD 21"</t>
+          <t>2022 Tesla Model S Plaid 19"</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>$99,490</t>
+          <t>$129,990</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2955,19 +2956,19 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>$100,690</t>
+          <t>$131,190</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2022 Tesla Model S Plaid 19"</t>
+          <t>2022 Tesla Model S Plaid 21"</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>$129,990</t>
+          <t>$134,490</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2982,19 +2983,19 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>$131,190</t>
+          <t>$135,690</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2022 Tesla Model S Plaid 21"</t>
+          <t>2022 Tesla Model X LR AWD 20"</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>$134,490</t>
+          <t>$104,990</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3009,19 +3010,19 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>$135,690</t>
+          <t>$106,190</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2022 Tesla Model X LR AWD 20"</t>
+          <t>2022 Tesla Model X LR AWD 22"</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>$104,990</t>
+          <t>$110,490</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3036,19 +3037,19 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>$106,190</t>
+          <t>$111,690</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2022 Tesla Model X LR AWD 22"</t>
+          <t>2022 Tesla Model X Plaid 20"</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>$110,490</t>
+          <t>$126,490</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3063,19 +3064,19 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>$111,690</t>
+          <t>$127,690</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2022 Tesla Model X Plaid 20"</t>
+          <t>2022 Tesla Model X Plaid 22"</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>$126,490</t>
+          <t>$131,990</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3090,19 +3091,19 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>$127,690</t>
+          <t>$133,190</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2022 Tesla Model X Plaid 22"</t>
+          <t>2022 Tesla Model Y Long Range AWD 19"</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>$131,990</t>
+          <t>$58,990</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3117,19 +3118,19 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>$133,190</t>
+          <t>$60,190</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2022 Tesla Model Y Long Range AWD 19"</t>
+          <t>2022 Tesla Model Y Long Range AWD 20"</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>$58,990</t>
+          <t>$60,990</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3144,19 +3145,19 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>$60,190</t>
+          <t>$62,190</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2022 Tesla Model Y Long Range AWD 20"</t>
+          <t>2022 Tesla Model Y Perf. LR AWD 21"</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>$60,990</t>
+          <t>$63,990</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3171,46 +3172,46 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>$62,190</t>
+          <t>$65,190</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2022 Tesla Model Y Perf. LR AWD 21"</t>
+          <t>2022 Volvo C40 Recharge</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>$63,990</t>
+          <t>$58,750</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>+$1,200</t>
+          <t>+$1,095</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$7,500</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>$65,190</t>
+          <t>$52,345</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2022 Volvo C40 Recharge</t>
+          <t>2022 Volvo XC40 Recharge</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>$58,750</t>
+          <t>$55,300</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3225,24 +3226,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>$52,345</t>
+          <t>$48,895</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2022 Volvo XC40 Recharge</t>
+          <t>2022 Volkswagen ID.4 Pro 19"</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>$55,300</t>
+          <t>$40,760</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>+$1,095</t>
+          <t>+$1,195</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3252,19 +3253,19 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>$48,895</t>
+          <t>$34,455</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2022 Volkswagen ID.4 Pro 19"</t>
+          <t>2022 Volkswagen ID.4 Pro S 19"</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>$40,760</t>
+          <t>$45,260</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3279,19 +3280,19 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>$34,455</t>
+          <t>$38,955</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2022 Volkswagen ID.4 Pro S 19"</t>
+          <t>2022 Volkswagen ID.4 AWD Pro 19"</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>$45,260</t>
+          <t>$44,440</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3306,61 +3307,3509 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>$38,955</t>
+          <t>$38,135</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
+          <t>2022 Volkswagen ID.4 AWD Pro S 19"</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>$48,940</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>+$1,195</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>$7,500</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>$42,635</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F108"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Drive</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Battery(kWh)</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>EPARange</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>0-60mph(sec)</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>TopSpeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2022 Audi e-tron GT quattro 20"</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>93.4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>238 mi(383 km)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>152 mph(245 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2022 Audi RS e-tron GT quattro 20"</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>93.4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>232 mi(373 km)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>155 mph(249 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2022 Audi e-tron quattro 20"</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>222 mi(357 km)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>5.5</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>124 mph(200 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2022 Audi e-tron Sportback quattro 20"</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>218 mi(351 km)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>5.5</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>124 mph(200 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2022 Audi e-tron S 20"</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>208 mi(335 km)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>130 mph(209 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2022 Audi e-tron S 21"</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>181 mi(291 km)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>130 mph(209 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2022 Audi e-tron S Sportback 20"</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>212 mi(341 km)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>130 mph(209 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2022 Audi e-tron S Sportback 21"</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>185 mi(298 km)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>130 mph(209 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2022 Audi Q4 40 e-tron 19"</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>RWD</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>250 mi*(402 km)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7.9</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>99 mph(159 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2022 Audi Q4 50 e-tron quattro 19"</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>241 mi(388 km)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>5.8</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>112 mph(180 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2022 Audi Q4 Sportback 50 e-tron quattro 20"</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>241 mi(388 km)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5.8</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>112 mph(180 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2022 BMW i4 eDrive40 18"</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>RWD</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>83.9</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>301 mi*(484 km)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5.5</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>118 mph(190 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2022 BMW i4 M50 19"</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>83.9</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>270 mi*(434 km)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>130 mph(209 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2022 BMW iX xDrive50 20"</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>111.5</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>324 mi*(521 km)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>124 mph(200 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2023 Cadillac Lyriq Debut Edition</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>RWD</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>100.4</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>300 mi*(483 km)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2022 Chevrolet Bolt EV</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>259 mi(417 km)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>6.5*</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2022 Chevrolet Bolt EUV</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>247 mi(397 km)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>7.0*</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2022 Ford F-150 Pro SR 18"</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>110*</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>230 mi*(370 km)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2022 Ford F-150 Pro ER (fleets) 18"</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>145*</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>300 mi*(483 km)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2022 Ford F-150 Lightning XLT SR 18"</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>110*</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>230 mi*(370 km)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2022 Ford F-150 Lightning XLT ER 20"</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>145*</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>300 mi*(483 km)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2022 Ford F-150 Lightning Lariat SR 20"</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>110*</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>230 mi*(370 km)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2022 Ford F-150 Lightning Lariat ER 20"</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>145*</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>300 mi*(483 km)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2022 Ford F-150 Lightning Platinum ER 22"</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>145*</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>280 mi*(451 km)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2022 Ford Mustang Mach-E Select SR RWD 18"</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>RWD</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>75.7</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>247 mi*(397 km)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>5.8</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2022 Ford Mustang Mach-E Select SR AWD 18"</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>75.7</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>224 mi*(360 km)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>5.2</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2022 Ford Mustang Mach-E Premium SR RWD 19"</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RWD</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>75.7</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>247 mi*(397 km)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>5.8</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2022 Ford Mustang Mach-E Premium SR AWD 19"</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>75.7</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>224 mi*(360 km)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>5.2</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2022 Ford Mustang Mach-E Premium ER RWD 19"</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>RWD</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>98.8</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>303 mi*(488 km)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>6.1</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2022 Ford Mustang Mach-E Premium ER AWD 19"</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>98.8</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>277 mi*(446 km)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2022 Ford Mustang Mach-E Route 1 ER RWD 18"</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>RWD</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>98.8</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>314 mi*(505 km)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>6.1</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2022 Ford Mustang Mach-E Route 1 ER AWD 18"</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>98.8</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>312 mi*(502 km)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2022 Ford Mustang Mach-E GT ER AWD 20"</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>98.8</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>270 mi*(434 km)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2022 Ford Mustang Mach-E GT Perf. ER AWD 20"</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>98.8</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>260 mi*(418 km)</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2022 GMC Hummer EV Pickup (Edition 1)</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>200*</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>329 mi*(529 km)</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>3.0*</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2022 Hyundai Ioniq 5 SE SR RWD 19"</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>RWD</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>58.2</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>220 mi(354 km)</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2022 Hyundai Ioniq 5 SE RWD 19"</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>RWD</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>77.4</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>303 mi(488 km)</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>115 mph(185 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2022 Hyundai Ioniq 5 SE AWD 19"</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>77.4</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>256 mi(412 km)</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>115 mph(185 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2022 Hyundai Ioniq 5 SEL RWD 19"</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>RWD</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>77.4</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>303 mi(488 km)</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>115 mph(185 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2022 Hyundai Ioniq 5 SEL AWD 19"</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>77.4</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>256 mi(412 km)</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>115 mph(185 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2022 Hyundai Ioniq 5 Limited RWD 19"</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>RWD</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>77.4</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>303 mi(488 km)</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>115 mph(185 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2022 Hyundai Ioniq 5 Limited AWD 20"</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>77.4</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>256 mi(412 km)</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>115 mph(185 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2021 Hyundai IONIQ Electric</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>38.3</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>170 mi(274 km)</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>102 mph(164 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2022 Hyundai Kona Electric</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>258 mi(415 km)</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>7.9</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>104 mph(167 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2022 Jaguar I-PACE EV400</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>234 mi*(377 km)</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>124 mph(200 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2022 Kia EV6 Light RWD SR 19"</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>RWD</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>232 mi(373 km)</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>115 mph(185 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2022 Kia EV6 Wind RWD LR 19"</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>RWD</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>77.4</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>310 mi(499 km)</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>7.2</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>115 mph(185 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2022 Kia EV6 Wind AWD LR 19"</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>77.4</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>274 mi(441 km)</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>5.1</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>117 mph(188 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2022 Kia EV6 GT-Line RWD LR 19"</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>RWD</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>77.4</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>310 mi(499 km)</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>7.2</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>115 mph(185 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2022 Kia EV6 GT-Line AWD LR 19"</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>77.4</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>274 mi(441 km)</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>5.1</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>117 mph(188 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2022 Kia EV6 First Edition AWD LR 20"</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>77.4</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>265 mi*(426 km)</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>5.1</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>117 mph(188 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2022 Kia Niro EV</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>239 mi(385 km)</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>104 mph(167 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2022 Lucid Air Dream Edition Performance 19"</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>471 mi(758 km)</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>168 mph(270 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2022 Lucid Air Dream Edition Performance 21"</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>451 mi(726 km)</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>168 mph(270 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2022 Lucid Air Dream Edition Range 19"</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>520 mi(837 km)</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2.7</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>168 mph(270 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2022 Lucid Air Dream Edition Range 21"</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>481 mi(774 km)</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>168 mph(270 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2022 Lucid Air Grand Touring 19"</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>516 mi(830 km)</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>168 mph(270 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2022 Lucid Air Grand Touring 21"</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>469 mi(755 km)</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>168 mph(270 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2022 Mazda MX-30</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>35.5</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>100 mi(161 km)</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>87 mph(140 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2022 Mercedes EQS 450+ (RWD; 20")</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>RWD</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>115*</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>350 mi(563 km)</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>5.9</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>130 mph(209 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2022 Mercedes EQS 580 4MATIC (AWD; 21")</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>115*</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>340 mi(547 km)</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>130 mph(209 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2022 MINI Cooper SE</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>32.6</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>114 mi(183 km)</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>6.9</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>93 mph(150 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2023 Nissan Ariya Venture+ FWD 19"</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>300 mi*(483 km)</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>7.2</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2023 Nissan Ariya Evolve+ FWD 19"</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>285 mi*(459 km)</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>7.2</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2023 Nissan Ariya Premiere FWD 19" (limited)</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>285 mi*(459 km)</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>7.2</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2023 Nissan Ariya Platinum+ e-4ORCE AWD 19"</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>265 mi*(426 km)</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2022 Nissan LEAF S (40 kWh)</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>149 mi(240 km)</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>7.4*</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>90 mph(145 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2022 Nissan LEAF e+ S (62 kWh)</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>226 mi(364 km)</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>6.5*</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2022 Nissan LEAF e+ SV (62 kWh)</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>215 mi(346 km)</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>6.5*</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2022 Polestar 2 Single Motor 19"</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>270 mi(434 km)</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>100 mph(161 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2022 Polestar 2 Dual Motor 19"</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>249 mi(401 km)</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>127 mph(204 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2022 Porsche Taycan (79 kWh) 19"</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>RWD</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>79.2</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>200 mi(322 km)</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>5.1</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>143 mph(230 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2022 Porsche Taycan (93 kWh) 19"</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>RWD</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>93.4</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>225 mi(362 km)</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>5.1</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>143 mph(230 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2022 Porsche Taycan 4S (79 kWh) 19"</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>79.2</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>199 mi(320 km)</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>155 mph(249 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2022 Porsche Taycan 4S (93 kWh) 19"</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>93.4</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>227 mi(365 km)</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>155 mph(249 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2022 Porsche Taycan GTS (93 kWh) 20"</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>93.4</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>155 mph(249 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2022 Porsche Taycan Turbo (93 kWh) 20"</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>93.4</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>212 mi(341 km)</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>161 mph(259 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2022 Porsche Taycan Turbo S (93 kWh) 21"</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>93.4</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>201 mi(323 km)</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2.6</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>161 mph(259 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2022 Porsche Taycan 4 Cross Turismo 19"</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>93.4</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>215 mi(346 km)</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>137 mph(220 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2022 Porsche Taycan 4S Cross Turismo 19"</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>93.4</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>215 mi(346 km)</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>149 mph(240 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2022 Porsche Taycan GTS Sport Turismo 20"</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>93.4</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>155 mph(249 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2022 Porsche Taycan Turbo Cross Turismo 20"</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>93.4</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>204 mi(328 km)</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>155 mph(249 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2022 Porsche Taycan Turbo S Cross Turismo 20"</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>93.4</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>202 mi(325 km)</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2.7</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>155 mph(249 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2022 Rivian R1S (Large pack, 21")</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>135*</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>316 mi(508 km)</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>125 mph(201 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2022 Rivian R1T (Large pack, 21")</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>135*</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>314 mi(505 km)</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>125 mph(201 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2022 Tesla Model 3 RWD 18"</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>RWD</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>60*</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>272 mi(438 km)</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>5.8</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>140 mph(225 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2022 Tesla Model 3 RWD 19"</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>RWD</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>60*</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>267 mi*(430 km)</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>5.8</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>140 mph(225 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2022 Tesla Model 3 Long Range AWD 18"</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>80*</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>358 mi(576 km)</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>145 mph(233 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2022 Tesla Model 3 Long Range AWD 19"</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>80*</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>334 mi*(537 km)</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>145 mph(233 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2022 Tesla Model 3 Perf. LR AWD 20"</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>80*</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>315 mi(507 km)</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>162 mph(261 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2022 Tesla Model S LR AWD 19"</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>100*</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>405 mi(652 km)</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>155 mph(249 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2022 Tesla Model S LR AWD 21"</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>100*</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>375 mi*(603 km)</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>155 mph(249 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2022 Tesla Model S Plaid 19"</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>100*</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>396 mi(637 km)</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>1.99*</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>200 mph(322 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2022 Tesla Model S Plaid 21"</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>100*</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>348 mi(560 km)</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>1.99*</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>200 mph(322 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2022 Tesla Model X LR AWD 20"</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>100*</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>348 mi(560 km)</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>155 mph(249 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2022 Tesla Model X LR AWD 22"</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>100*</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>332 mi*(534 km)</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>155 mph(249 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2022 Tesla Model X Plaid 20"</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>100*</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>333 mi(536 km)</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>163 mph(262 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2022 Tesla Model X Plaid 22"</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>100*</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>311 mi(500 km)</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>163 mph(262 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2022 Tesla Model Y Long Range AWD 19"</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>80*</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>330 mi(531 km)</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>135 mph(217 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2022 Tesla Model Y Long Range AWD 20"</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>80*</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>318 mi*(512 km)</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>135 mph(217 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2022 Tesla Model Y Perf. LR AWD 21"</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>80*</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>303 mi(488 km)</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>155 mph(249 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2022 Volvo C40 Recharge</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>226 mi(364 km)</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>112 mph(180 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2022 Volvo XC40 Recharge</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>223 mi(359 km)</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>112 mph(180 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2022 Volkswagen ID.4 Pro 19"</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>RWD</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>260 mi*(418 km)</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>7.7</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>99 mph(159 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2022 Volkswagen ID.4 Pro S 19"</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>RWD</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>250 mi*(402 km)</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>99 mph(159 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
           <t>2022 Volkswagen ID.4 AWD Pro 19"</t>
         </is>
       </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>AWD</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>249 mi*(401 km)</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>5.7</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>111 mph(179 km/h)</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2022 Volkswagen ID.4 AWD Pro S 19"</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>$44,440</t>
+          <t>AWD</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>+$1,195</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>$7,500</t>
+          <t>240 mi*(386 km)</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>$38,135</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>2022 Volkswagen ID.4 AWD Pro S 19"</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>$48,940</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>+$1,195</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>$7,500</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>$42,635</t>
+          <t>5.8</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>111 mph(179 km/h)</t>
         </is>
       </c>
     </row>
